--- a/ATAKP (TRY).xlsx
+++ b/ATAKP (TRY).xlsx
@@ -2461,6 +2461,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>-135641588</v>
+      </c>
       <c r="C108">
         <v>129306801.67637134</v>
       </c>
